--- a/biology/Botanique/Parco_Sempione/Parco_Sempione.xlsx
+++ b/biology/Botanique/Parco_Sempione/Parco_Sempione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Parco Sempione[1] est un espace vert d'une superficie de 386 000 m2 situé à Milan près du château des Sforza. Construit à la fin du XIXe siècle, le parc est complètement enclos et vidéosurveillé. Son nom dérive du Corso Sempione (cours Simplon), l'une des voies les plus importantes de Milan, percée sous le régime napoléonien.
+Le Parco Sempione est un espace vert d'une superficie de 386 000 m2 situé à Milan près du château des Sforza. Construit à la fin du XIXe siècle, le parc est complètement enclos et vidéosurveillé. Son nom dérive du Corso Sempione (cours Simplon), l'une des voies les plus importantes de Milan, percée sous le régime napoléonien.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parco Sempione se trouve à la place de l'ancien parc ducal Visconti, situé près du château Sforzesco. Il est agrandi et clôturé par la famille Sforza jusqu'à mesurer plus de 3 millions de mètres carrés (300 hectares). Le parc était un bois composé principalement de chênes et de châtaigniers et peuplé par des animaux exotiques introduits par l'homme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parco Sempione se trouve à la place de l'ancien parc ducal Visconti, situé près du château Sforzesco. Il est agrandi et clôturé par la famille Sforza jusqu'à mesurer plus de 3 millions de mètres carrés (300 hectares). Le parc était un bois composé principalement de chênes et de châtaigniers et peuplé par des animaux exotiques introduits par l'homme.
 Avec la chute des Sforza et la domination espagnole, le parc est abandonné. En 1861, il est en partie utilisé à des fins agricoles, et la zone sert de lieu de parade aux soldats stationnés près du Castello Sforzesco. Le château est utilisé comme caserne, ce qui conduit à une détérioration conséquente des structures.
-A l'époque napoléonienne, l'architecte Giovanni Antonio Antolini projette la construction d'un grand ensemble immobilier autour du château, baptisé « Foro Buonaparte » en l'honneur de Napoléon [3] ; le projet n'est jamais réalisé, et le terrain de parade est transformé en une grande pelouse, décorée au nord-est par l'Arena, et au nord-ouest par l'Arco della Pace, point de départ du Corso Sempione.
-Après l'unification de l'Italie, l'utilisation militaire de la zone[4] cesse. Au même moment, la population milanaise augmente considérablement, ce qui rend nécessaire la construction de nouveaux quartiers. Une société immobilière propose de morceler la zone du château (qui devait être démoli) et le terrain de parade, mais la proposition provoque de vives protestations de la part des citoyens, ce qui conduit à la rédaction du premier plan réglementaire de la ville, élaboré par l'ingénieur Cesare Beruto (le Plan Beruto)[5]. Ce plan, qui présente initialement les objectifs de construction sur la zone, est modifié à plusieurs reprises. Un consensus aboutit à la transformation du terrain de parade en jardin public. Pour le château, une restauration est prévue à des fins culturelles[6].
-Le parc actuel est construit entre 1888 et 1894, d'après le projet de l'architecte Emilio Alemagna[7], qui comprend des avenues pouvant être parcourues en calèches, un étang et un belvédère, où se trouve la Bibliothèque du Parco Sempione. La pelouse a été conçue d'après le modèle des parcs anglais.
+A l'époque napoléonienne, l'architecte Giovanni Antonio Antolini projette la construction d'un grand ensemble immobilier autour du château, baptisé « Foro Buonaparte » en l'honneur de Napoléon  ; le projet n'est jamais réalisé, et le terrain de parade est transformé en une grande pelouse, décorée au nord-est par l'Arena, et au nord-ouest par l'Arco della Pace, point de départ du Corso Sempione.
+Après l'unification de l'Italie, l'utilisation militaire de la zone cesse. Au même moment, la population milanaise augmente considérablement, ce qui rend nécessaire la construction de nouveaux quartiers. Une société immobilière propose de morceler la zone du château (qui devait être démoli) et le terrain de parade, mais la proposition provoque de vives protestations de la part des citoyens, ce qui conduit à la rédaction du premier plan réglementaire de la ville, élaboré par l'ingénieur Cesare Beruto (le Plan Beruto). Ce plan, qui présente initialement les objectifs de construction sur la zone, est modifié à plusieurs reprises. Un consensus aboutit à la transformation du terrain de parade en jardin public. Pour le château, une restauration est prévue à des fins culturelles.
+Le parc actuel est construit entre 1888 et 1894, d'après le projet de l'architecte Emilio Alemagna, qui comprend des avenues pouvant être parcourues en calèches, un étang et un belvédère, où se trouve la Bibliothèque du Parco Sempione. La pelouse a été conçue d'après le modèle des parcs anglais.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Dans le parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Palazzo dell'Arte, où se déroule la Triennale de Milan
 Arena Civica
